--- a/DATA_goal/Junction_Flooding_388.xlsx
+++ b/DATA_goal/Junction_Flooding_388.xlsx
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -461,19 +461,19 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44781.96527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.64</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.97222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.52</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.8</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.67</v>
+        <v>66.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.56</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.35</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.45</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.97916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.83</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.69</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.79</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.08</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.94</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.98611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.97</v>
+        <v>49.73</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.03</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.95</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.75</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_388.xlsx
+++ b/DATA_goal/Junction_Flooding_388.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.96527777778</v>
+        <v>45069.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.35</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.03</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.78</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.02</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.94</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.48</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.15</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.85</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.5</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.03</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.4</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.26</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.73</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.37</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.74</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.05</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.64</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.07</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.96</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.58</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.91</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.64</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.12</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.18</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.42</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.16</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.4</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.97222222222</v>
+        <v>45069.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.83</v>
+        <v>20.418</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.11</v>
+        <v>14.511</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.52</v>
+        <v>1.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.87</v>
+        <v>42.506</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.96</v>
+        <v>34.077</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.99</v>
+        <v>14.471</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.52</v>
+        <v>51.931</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.4</v>
+        <v>22.718</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.32</v>
+        <v>10.025</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.84</v>
+        <v>15.053</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.8</v>
+        <v>16.759</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.48</v>
+        <v>18.903</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.26</v>
+        <v>4.823</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.45</v>
+        <v>14.271</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.97</v>
+        <v>21.359</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.96</v>
+        <v>12.337</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.754</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.426</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>66.67</v>
+        <v>221.15</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.56</v>
+        <v>41.825</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4</v>
+        <v>14.318</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.82</v>
+        <v>28.583</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.35</v>
+        <v>15.256</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.962</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.99</v>
+        <v>25.906</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.81</v>
+        <v>12.225</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.54</v>
+        <v>10.202</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.72</v>
+        <v>12.782</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.45</v>
+        <v>17.869</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.79</v>
+        <v>45.806</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.64</v>
+        <v>7.61</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.4</v>
+        <v>16.997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.97916666666</v>
+        <v>45069.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.94</v>
+        <v>7.955</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.67</v>
+        <v>5.509</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.555</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.21</v>
+        <v>16.135</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.78</v>
+        <v>12.678</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.71</v>
+        <v>5.236</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.97</v>
+        <v>26.186</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.88</v>
+        <v>3.647</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.34</v>
+        <v>5.472</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.18</v>
+        <v>6.285</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.46</v>
+        <v>7.385</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.6</v>
+        <v>1.814</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.34</v>
+        <v>5.098</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.06</v>
+        <v>8.064</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.63</v>
+        <v>4.611</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.459</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.26000000000001</v>
+        <v>78.28700000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.69</v>
+        <v>15.933</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.84</v>
+        <v>5.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.99</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.96</v>
+        <v>5.844</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.736</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.79</v>
+        <v>12.049</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.47</v>
+        <v>4.584</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.72</v>
+        <v>3.662</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.5</v>
+        <v>4.851</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.08</v>
+        <v>6.771</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.94</v>
+        <v>23.378</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.06</v>
+        <v>2.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.33</v>
+        <v>6.277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.98611111111</v>
+        <v>45069.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.6</v>
+        <v>18.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.8</v>
+        <v>13.45</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.82</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.1</v>
+        <v>39.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.5</v>
+        <v>31.77</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.8</v>
+        <v>13.66</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.84</v>
+        <v>52.27</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.77</v>
+        <v>21.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.61</v>
+        <v>9.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.26</v>
+        <v>14.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.86</v>
+        <v>15.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.29</v>
+        <v>16.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.05</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.53</v>
+        <v>13.49</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.4</v>
+        <v>19.86</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.09</v>
+        <v>11.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.45</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>49.73</v>
+        <v>204.22</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.54</v>
+        <v>38.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.18</v>
+        <v>13.03</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.01</v>
+        <v>26.44</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.03</v>
+        <v>13.98</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.51</v>
+        <v>1.82</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.95</v>
+        <v>25.43</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.97</v>
+        <v>11.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.2</v>
+        <v>9.67</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.98</v>
+        <v>11.8</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.75</v>
+        <v>16.43</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.42</v>
+        <v>46.69</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.07</v>
+        <v>7.16</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.99304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.34</v>
+        <v>15.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_388.xlsx
+++ b/DATA_goal/Junction_Flooding_388.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45069.50694444445</v>
+        <v>44781.96527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.885</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.942</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.363</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.767</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.737</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.281</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.168</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.758</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.218</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.359</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.493</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.668</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.884</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.495</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.484</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.256</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.797</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.514</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.303</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.938</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.803</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.246</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.634</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.588</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.048</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.034</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.186</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.547</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.594</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.826</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45069.51388888889</v>
+        <v>44781.97222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.418</v>
+        <v>5.835</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.511</v>
+        <v>5.112</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.523</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>42.506</v>
+        <v>12.87</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>34.077</v>
+        <v>10.96</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.471</v>
+        <v>4.993</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>51.931</v>
+        <v>16.517</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.718</v>
+        <v>7.396</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.025</v>
+        <v>3.317</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.053</v>
+        <v>5.84</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.759</v>
+        <v>6.801</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.903</v>
+        <v>5.476</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.823</v>
+        <v>1.258</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.271</v>
+        <v>4.448</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.359</v>
+        <v>6.972</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.337</v>
+        <v>3.957</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.754</v>
+        <v>0.044</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.426</v>
+        <v>0.186</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>221.15</v>
+        <v>66.669</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>41.825</v>
+        <v>13.561</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.318</v>
+        <v>3.995</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>28.583</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.256</v>
+        <v>5.352</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.962</v>
+        <v>0.705</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.906</v>
+        <v>8.994999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.225</v>
+        <v>3.814</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.202</v>
+        <v>4.543</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.782</v>
+        <v>3.717</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.869</v>
+        <v>6.453</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.173</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>45.806</v>
+        <v>14.79</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.61</v>
+        <v>2.641</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.997</v>
+        <v>5.402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45069.52083333334</v>
+        <v>44781.97916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.955</v>
+        <v>6.938</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.509</v>
+        <v>5.673</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.555</v>
+        <v>0.454</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.135</v>
+        <v>15.208</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.678</v>
+        <v>12.778</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.236</v>
+        <v>5.706</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.186</v>
+        <v>20.975</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>8.644</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.647</v>
+        <v>3.885</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.472</v>
+        <v>6.343</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.285</v>
+        <v>7.183</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.385</v>
+        <v>6.458</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.814</v>
+        <v>1.599</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.098</v>
+        <v>5.335</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.064</v>
+        <v>8.058999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.611</v>
+        <v>4.631</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.459</v>
+        <v>0.046</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.28700000000001</v>
+        <v>78.255</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.933</v>
+        <v>15.694</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.47</v>
+        <v>4.835</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.99</v>
+        <v>10.409</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.844</v>
+        <v>5.958</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.736</v>
+        <v>0.77</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.049</v>
+        <v>10.786</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.584</v>
+        <v>4.471</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.662</v>
+        <v>4.719</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.851</v>
+        <v>4.498</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.771</v>
+        <v>7.081</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.141</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.378</v>
+        <v>18.938</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.76</v>
+        <v>3.059</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.277</v>
+        <v>6.333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45069.52777777778</v>
+        <v>44781.98611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.32</v>
+        <v>4.603</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.45</v>
+        <v>3.796</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.322</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.01</v>
+        <v>10.104</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.77</v>
+        <v>8.502000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.66</v>
+        <v>3.8</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>52.27</v>
+        <v>15.843</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.29</v>
+        <v>5.769</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.42</v>
+        <v>2.612</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.15</v>
+        <v>4.26</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.51</v>
+        <v>4.861</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.95</v>
+        <v>4.287</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.47</v>
+        <v>1.05</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.49</v>
+        <v>3.529</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.86</v>
+        <v>5.402</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.49</v>
+        <v>3.092</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.027</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.109</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>204.22</v>
+        <v>49.726</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.81</v>
+        <v>10.542</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.03</v>
+        <v>3.181</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.44</v>
+        <v>7.006</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.98</v>
+        <v>4.028</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.82</v>
+        <v>0.511</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.43</v>
+        <v>7.95</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.33</v>
+        <v>2.966</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.67</v>
+        <v>3.199</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.8</v>
+        <v>2.984</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.43</v>
+        <v>4.755</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.69</v>
+        <v>14.419</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.16</v>
+        <v>2.067</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.88</v>
+        <v>4.201</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.99304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_388.xlsx
+++ b/DATA_goal/Junction_Flooding_388.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.96527777778</v>
+        <v>45069.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.347</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.032</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.777</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.022</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.942</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.483</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.151999999999999</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.852</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.498</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.03</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.398</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.257</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.73</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.371</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.736</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.045</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.138</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.227</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.637</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.069</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.959</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.58</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.913</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.755</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.641</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.12</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.177</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.517</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.419</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.192</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.159</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.015</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.399</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.97222222222</v>
+        <v>45069.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.835</v>
+        <v>20.418</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.112</v>
+        <v>14.511</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.523</v>
+        <v>1.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.87</v>
+        <v>42.506</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.96</v>
+        <v>34.077</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.993</v>
+        <v>14.471</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.517</v>
+        <v>51.931</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.396</v>
+        <v>22.718</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.317</v>
+        <v>10.025</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.84</v>
+        <v>15.053</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.801</v>
+        <v>16.759</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.476</v>
+        <v>18.903</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.258</v>
+        <v>4.823</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.448</v>
+        <v>14.271</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.972</v>
+        <v>21.359</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.957</v>
+        <v>12.337</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.044</v>
+        <v>0.754</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.186</v>
+        <v>0.426</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>66.669</v>
+        <v>221.15</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.561</v>
+        <v>41.825</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.995</v>
+        <v>14.318</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.821999999999999</v>
+        <v>28.583</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.352</v>
+        <v>15.256</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.705</v>
+        <v>1.962</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.994999999999999</v>
+        <v>25.906</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.814</v>
+        <v>12.225</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.543</v>
+        <v>10.202</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.717</v>
+        <v>12.782</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.453</v>
+        <v>17.869</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.115</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.79</v>
+        <v>45.806</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.641</v>
+        <v>7.61</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.402</v>
+        <v>16.997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.97916666666</v>
+        <v>45069.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.938</v>
+        <v>7.955</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.673</v>
+        <v>5.509</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.454</v>
+        <v>0.555</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.208</v>
+        <v>16.135</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.778</v>
+        <v>12.678</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.706</v>
+        <v>5.236</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.975</v>
+        <v>26.186</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.644</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.885</v>
+        <v>3.647</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.343</v>
+        <v>5.472</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.183</v>
+        <v>6.285</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.458</v>
+        <v>7.385</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.599</v>
+        <v>1.814</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.335</v>
+        <v>5.098</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.058999999999999</v>
+        <v>8.064</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.631</v>
+        <v>4.611</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.046</v>
+        <v>0.459</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.255</v>
+        <v>78.28700000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.694</v>
+        <v>15.933</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.835</v>
+        <v>5.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.409</v>
+        <v>10.99</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.958</v>
+        <v>5.844</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.736</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.786</v>
+        <v>12.049</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.471</v>
+        <v>4.584</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.719</v>
+        <v>3.662</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.498</v>
+        <v>4.851</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.081</v>
+        <v>6.771</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.092</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.938</v>
+        <v>23.378</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.059</v>
+        <v>2.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.333</v>
+        <v>6.277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.98611111111</v>
+        <v>45069.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.603</v>
+        <v>18.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.796</v>
+        <v>13.45</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.322</v>
+        <v>0.82</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.104</v>
+        <v>39.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.502000000000001</v>
+        <v>31.77</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.8</v>
+        <v>13.66</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.843</v>
+        <v>52.27</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.769</v>
+        <v>21.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.612</v>
+        <v>9.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.26</v>
+        <v>14.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.861</v>
+        <v>15.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.287</v>
+        <v>16.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.05</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.529</v>
+        <v>13.49</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.402</v>
+        <v>19.86</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.092</v>
+        <v>11.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.027</v>
+        <v>0.45</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.109</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>49.726</v>
+        <v>204.22</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.542</v>
+        <v>38.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.181</v>
+        <v>13.03</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.006</v>
+        <v>26.44</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.028</v>
+        <v>13.98</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.511</v>
+        <v>1.82</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.95</v>
+        <v>25.43</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.966</v>
+        <v>11.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.199</v>
+        <v>9.67</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.984</v>
+        <v>11.8</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.755</v>
+        <v>16.43</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.419</v>
+        <v>46.69</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.067</v>
+        <v>7.16</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.201</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.99304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.34</v>
+        <v>15.88</v>
       </c>
     </row>
   </sheetData>
